--- a/MAD_tool_NatDB/ver_2/MADmap_Jan2020.xlsx
+++ b/MAD_tool_NatDB/ver_2/MADmap_Jan2020.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>variable</t>
   </si>
@@ -962,6 +962,17 @@
   </si>
   <si>
     <t>kg/kg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.obolibrary.org/obo/UO_0010006</t>
+    </r>
   </si>
   <si>
     <t>.goncalves.2018</t>
@@ -1013,7 +1024,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1027,6 +1038,12 @@
     <font>
       <sz val="15"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1292,6 +1309,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffbfbfbf"/>
+      <rgbColor rgb="ff0563c1"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -7167,7 +7185,7 @@
         <v>4</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" t="s" s="2">
@@ -7193,7 +7211,7 @@
       </c>
       <c r="B129" s="7"/>
       <c r="C129" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>178</v>
@@ -7232,7 +7250,7 @@
       </c>
       <c r="B130" s="7"/>
       <c r="C130" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>146</v>
@@ -7270,10 +7288,10 @@
         <v>264</v>
       </c>
       <c r="B131" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C131" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" t="s" s="2">
@@ -7283,7 +7301,7 @@
         <v>9</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>176</v>
@@ -7307,10 +7325,10 @@
         <v>264</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" t="s" s="2">
@@ -7320,7 +7338,7 @@
         <v>9</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>176</v>
@@ -7344,10 +7362,10 @@
         <v>264</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" t="s" s="2">
@@ -7357,7 +7375,7 @@
         <v>9</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>176</v>
@@ -7384,7 +7402,7 @@
         <v>206</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" t="s" s="2">
@@ -7415,13 +7433,13 @@
     </row>
     <row r="135" ht="17" customHeight="1">
       <c r="A135" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" t="s" s="2">
@@ -7431,7 +7449,7 @@
         <v>9</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>176</v>
@@ -7452,13 +7470,13 @@
     </row>
     <row r="136" ht="17" customHeight="1">
       <c r="A136" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" t="s" s="2">
@@ -7468,7 +7486,7 @@
         <v>9</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>176</v>
@@ -7477,7 +7495,7 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
@@ -7491,13 +7509,13 @@
     </row>
     <row r="137" ht="17" customHeight="1">
       <c r="A137" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" t="s" s="2">
@@ -7528,13 +7546,13 @@
     </row>
     <row r="138" ht="17" customHeight="1">
       <c r="A138" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" t="s" s="2">
@@ -7564,6 +7582,9 @@
       <c r="U138" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F128" r:id="rId1" location="" tooltip="" display="http://purl.obolibrary.org/obo/UO_0010006"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/MAD_tool_NatDB/ver_2/MADmap_Jan2020.xlsx
+++ b/MAD_tool_NatDB/ver_2/MADmap_Jan2020.xlsx
@@ -971,7 +971,7 @@
         <color indexed="12"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>http://purl.obolibrary.org/obo/UO_0010006</t>
+      <t>http://top-thesaurus.org/annotationInfo?viz=1&amp;&amp;trait=Leaf_nitrogen_content_per_leaf_dry_mass</t>
     </r>
   </si>
   <si>
@@ -7583,7 +7583,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F128" r:id="rId1" location="" tooltip="" display="http://purl.obolibrary.org/obo/UO_0010006"/>
+    <hyperlink ref="F128" r:id="rId1" location="" tooltip="" display="http://top-thesaurus.org/annotationInfo?viz=1&amp;&amp;trait=Leaf_nitrogen_content_per_leaf_dry_mass"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
